--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/Collections.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/Collections.xlsx
@@ -21,36 +21,57 @@
     <x:t>Strings</x:t>
   </x:si>
   <x:si>
+    <x:t>Arrays</x:t>
+  </x:si>
+  <x:si>
     <x:t>House</x:t>
   </x:si>
   <x:si>
     <x:t>Car</x:t>
   </x:si>
   <x:si>
-    <x:t>Arrays</x:t>
-  </x:si>
-  <x:si>
     <x:t>DataTable</x:t>
   </x:si>
   <x:si>
+    <x:t>Query</x:t>
+  </x:si>
+  <x:si>
     <x:t>Indocin</x:t>
   </x:si>
   <x:si>
     <x:t>David</x:t>
   </x:si>
   <x:si>
+    <x:t>John</x:t>
+  </x:si>
+  <x:si>
+    <x:t>On Elm St.</x:t>
+  </x:si>
+  <x:si>
     <x:t>Enebrel</x:t>
   </x:si>
   <x:si>
     <x:t>Sam</x:t>
   </x:si>
   <x:si>
+    <x:t>Luis</x:t>
+  </x:si>
+  <x:si>
+    <x:t>On 23rd St.</x:t>
+  </x:si>
+  <x:si>
     <x:t>Hydralazine</x:t>
   </x:si>
   <x:si>
     <x:t>Christoff</x:t>
   </x:si>
   <x:si>
+    <x:t>Henry</x:t>
+  </x:si>
+  <x:si>
+    <x:t>On 5th Ave.</x:t>
+  </x:si>
+  <x:si>
     <x:t>Combivent</x:t>
   </x:si>
   <x:si>
@@ -61,27 +82,6 @@
   </x:si>
   <x:si>
     <x:t>Melanie</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Query</x:t>
-  </x:si>
-  <x:si>
-    <x:t>John</x:t>
-  </x:si>
-  <x:si>
-    <x:t>On Elm St.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Luis</x:t>
-  </x:si>
-  <x:si>
-    <x:t>On 23rd St.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Henry</x:t>
-  </x:si>
-  <x:si>
-    <x:t>On 5th Ave.</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -148,7 +148,7 @@
     <x:xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="22" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
@@ -161,7 +161,7 @@
       <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -470,7 +470,7 @@
     <x:col min="1" max="1" width="8.98" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="13.41" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="10.55" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="13.129999999999999" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="10.41" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="3.98" style="0" customWidth="1"/>
     <x:col min="6" max="6" width="8.27" style="0" customWidth="1"/>
     <x:col min="7" max="7" width="13.27" style="0" customWidth="1"/>
@@ -482,7 +482,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C1" s="1" t="s">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D1" s="1" t="s"/>
       <x:c r="E1" s="1" t="s"/>
@@ -492,7 +492,7 @@
     </x:row>
     <x:row r="2" spans="1:8">
       <x:c r="A2" s="0" t="s">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C2" s="0" t="n">
         <x:v>1</x:v>
@@ -506,7 +506,7 @@
     </x:row>
     <x:row r="3" spans="1:8">
       <x:c r="A3" s="0" t="s">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C3" s="0" t="n">
         <x:v>1</x:v>
@@ -540,7 +540,7 @@
       <x:c r="C6" s="1" t="s"/>
       <x:c r="D6" s="1" t="s"/>
       <x:c r="F6" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G6" s="1" t="s"/>
       <x:c r="H6" s="1" t="s"/>
@@ -550,19 +550,19 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C7" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D7" s="2">
-        <x:v>40720.2728009259</x:v>
+        <x:v>36526</x:v>
       </x:c>
       <x:c r="F7" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G7" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="H7" s="0" t="n">
         <x:v>30</x:v>
@@ -573,19 +573,19 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D8" s="2">
-        <x:v>40720.2728009259</x:v>
+        <x:v>36527</x:v>
       </x:c>
       <x:c r="F8" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G8" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="H8" s="0" t="n">
         <x:v>21</x:v>
@@ -596,19 +596,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C9" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="D9" s="2">
-        <x:v>40720.2728009259</x:v>
+        <x:v>36528</x:v>
       </x:c>
       <x:c r="F9" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G9" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H9" s="0" t="n">
         <x:v>45</x:v>
@@ -619,13 +619,13 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C10" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="D10" s="2">
-        <x:v>40720.2728009259</x:v>
+        <x:v>36529</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:8">
@@ -633,13 +633,13 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C11" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D11" s="2">
-        <x:v>40720.2728009259</x:v>
+        <x:v>36530</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/Collections.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/Collections.xlsx
@@ -464,17 +464,16 @@
   <x:sheetViews>
     <x:sheetView tabSelected="0" workbookViewId="0"/>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="9" max="16384" width="9.850625" style="0" customWidth="1"/>
-    <x:col min="1" max="1" width="8.98" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="13.41" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="10.55" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="10.41" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="3.98" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="8.27" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="13.27" style="0" customWidth="1"/>
-    <x:col min="8" max="8" width="3.98" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="8.980625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="13.410625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="10.550625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="10.410625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="3.980625" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="8.270624999999999" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="13.270625" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="3.980625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:8">

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/Collections.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/Collections.xlsx
@@ -141,7 +141,7 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="3">
+  <x:cellStyleXfs count="6">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -151,8 +151,17 @@
     <x:xf numFmtId="14" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="3">
+  <x:cellXfs count="5">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -163,6 +172,14 @@
     </x:xf>
     <x:xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
@@ -490,44 +507,44 @@
       <x:c r="H1" s="1" t="s"/>
     </x:row>
     <x:row r="2" spans="1:8">
-      <x:c r="A2" s="0" t="s">
+      <x:c r="A2" s="3" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="C2" s="0" t="n">
+      <x:c r="C2" s="3" t="n">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="D2" s="0" t="n">
+      <x:c r="D2" s="3" t="n">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="E2" s="0" t="n">
+      <x:c r="E2" s="3" t="n">
         <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:8">
-      <x:c r="A3" s="0" t="s">
+      <x:c r="A3" s="3" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="C3" s="0" t="n">
+      <x:c r="C3" s="3" t="n">
         <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:8">
-      <x:c r="C4" s="0" t="n">
+      <x:c r="C4" s="3" t="n">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="D4" s="0" t="n">
+      <x:c r="D4" s="3" t="n">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="E4" s="0" t="n">
+      <x:c r="E4" s="3" t="n">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="F4" s="0" t="n">
+      <x:c r="F4" s="3" t="n">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="G4" s="0" t="n">
+      <x:c r="G4" s="3" t="n">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="H4" s="0" t="n">
+      <x:c r="H4" s="3" t="n">
         <x:v>6</x:v>
       </x:c>
     </x:row>
@@ -545,99 +562,99 @@
       <x:c r="H6" s="1" t="s"/>
     </x:row>
     <x:row r="7" spans="1:8">
-      <x:c r="A7" s="0" t="n">
+      <x:c r="A7" s="3" t="n">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="B7" s="0" t="s">
+      <x:c r="B7" s="3" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="C7" s="0" t="s">
+      <x:c r="C7" s="3" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="D7" s="2">
+      <x:c r="D7" s="4">
         <x:v>36526</x:v>
       </x:c>
-      <x:c r="F7" s="0" t="s">
+      <x:c r="F7" s="3" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="G7" s="0" t="s">
+      <x:c r="G7" s="3" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="H7" s="0" t="n">
+      <x:c r="H7" s="3" t="n">
         <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:8">
-      <x:c r="A8" s="0" t="n">
+      <x:c r="A8" s="3" t="n">
         <x:v>50</x:v>
       </x:c>
-      <x:c r="B8" s="0" t="s">
+      <x:c r="B8" s="3" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="C8" s="0" t="s">
+      <x:c r="C8" s="3" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="D8" s="2">
+      <x:c r="D8" s="4">
         <x:v>36527</x:v>
       </x:c>
-      <x:c r="F8" s="0" t="s">
+      <x:c r="F8" s="3" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="G8" s="0" t="s">
+      <x:c r="G8" s="3" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="H8" s="0" t="n">
+      <x:c r="H8" s="3" t="n">
         <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:8">
-      <x:c r="A9" s="0" t="n">
+      <x:c r="A9" s="3" t="n">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="B9" s="0" t="s">
+      <x:c r="B9" s="3" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="C9" s="0" t="s">
+      <x:c r="C9" s="3" t="s">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="D9" s="2">
+      <x:c r="D9" s="4">
         <x:v>36528</x:v>
       </x:c>
-      <x:c r="F9" s="0" t="s">
+      <x:c r="F9" s="3" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="G9" s="0" t="s">
+      <x:c r="G9" s="3" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="H9" s="0" t="n">
+      <x:c r="H9" s="3" t="n">
         <x:v>45</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:8">
-      <x:c r="A10" s="0" t="n">
+      <x:c r="A10" s="3" t="n">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="B10" s="0" t="s">
+      <x:c r="B10" s="3" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="C10" s="0" t="s">
+      <x:c r="C10" s="3" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="D10" s="2">
+      <x:c r="D10" s="4">
         <x:v>36529</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:8">
-      <x:c r="A11" s="0" t="n">
+      <x:c r="A11" s="3" t="n">
         <x:v>100</x:v>
       </x:c>
-      <x:c r="B11" s="0" t="s">
+      <x:c r="B11" s="3" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="C11" s="0" t="s">
+      <x:c r="C11" s="3" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="D11" s="2">
+      <x:c r="D11" s="4">
         <x:v>36530</x:v>
       </x:c>
     </x:row>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/Collections.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/Collections.xlsx
@@ -141,7 +141,7 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="6">
+  <x:cellStyleXfs count="4">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -154,14 +154,8 @@
     <x:xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="5">
+  <x:cellXfs count="3">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -172,14 +166,6 @@
     </x:xf>
     <x:xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
@@ -507,44 +493,44 @@
       <x:c r="H1" s="1" t="s"/>
     </x:row>
     <x:row r="2" spans="1:8">
-      <x:c r="A2" s="3" t="s">
+      <x:c r="A2" s="0" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="C2" s="3" t="n">
+      <x:c r="C2" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="D2" s="3" t="n">
+      <x:c r="D2" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="E2" s="3" t="n">
+      <x:c r="E2" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:8">
-      <x:c r="A3" s="3" t="s">
+      <x:c r="A3" s="0" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="C3" s="3" t="n">
+      <x:c r="C3" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:8">
-      <x:c r="C4" s="3" t="n">
+      <x:c r="C4" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="D4" s="3" t="n">
+      <x:c r="D4" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="E4" s="3" t="n">
+      <x:c r="E4" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="F4" s="3" t="n">
+      <x:c r="F4" s="0" t="n">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="G4" s="3" t="n">
+      <x:c r="G4" s="0" t="n">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="H4" s="3" t="n">
+      <x:c r="H4" s="0" t="n">
         <x:v>6</x:v>
       </x:c>
     </x:row>
@@ -562,99 +548,99 @@
       <x:c r="H6" s="1" t="s"/>
     </x:row>
     <x:row r="7" spans="1:8">
-      <x:c r="A7" s="3" t="n">
+      <x:c r="A7" s="0" t="n">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="B7" s="3" t="s">
+      <x:c r="B7" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="C7" s="3" t="s">
+      <x:c r="C7" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="D7" s="4">
+      <x:c r="D7" s="2">
         <x:v>36526</x:v>
       </x:c>
-      <x:c r="F7" s="3" t="s">
+      <x:c r="F7" s="0" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="G7" s="3" t="s">
+      <x:c r="G7" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="H7" s="3" t="n">
+      <x:c r="H7" s="0" t="n">
         <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:8">
-      <x:c r="A8" s="3" t="n">
+      <x:c r="A8" s="0" t="n">
         <x:v>50</x:v>
       </x:c>
-      <x:c r="B8" s="3" t="s">
+      <x:c r="B8" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="C8" s="3" t="s">
+      <x:c r="C8" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="D8" s="4">
+      <x:c r="D8" s="2">
         <x:v>36527</x:v>
       </x:c>
-      <x:c r="F8" s="3" t="s">
+      <x:c r="F8" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="G8" s="3" t="s">
+      <x:c r="G8" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="H8" s="3" t="n">
+      <x:c r="H8" s="0" t="n">
         <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:8">
-      <x:c r="A9" s="3" t="n">
+      <x:c r="A9" s="0" t="n">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="B9" s="3" t="s">
+      <x:c r="B9" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="C9" s="3" t="s">
+      <x:c r="C9" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="D9" s="4">
+      <x:c r="D9" s="2">
         <x:v>36528</x:v>
       </x:c>
-      <x:c r="F9" s="3" t="s">
+      <x:c r="F9" s="0" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="G9" s="3" t="s">
+      <x:c r="G9" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="H9" s="3" t="n">
+      <x:c r="H9" s="0" t="n">
         <x:v>45</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:8">
-      <x:c r="A10" s="3" t="n">
+      <x:c r="A10" s="0" t="n">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="B10" s="3" t="s">
+      <x:c r="B10" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="C10" s="3" t="s">
+      <x:c r="C10" s="0" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="D10" s="4">
+      <x:c r="D10" s="2">
         <x:v>36529</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:8">
-      <x:c r="A11" s="3" t="n">
+      <x:c r="A11" s="0" t="n">
         <x:v>100</x:v>
       </x:c>
-      <x:c r="B11" s="3" t="s">
+      <x:c r="B11" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="C11" s="3" t="s">
+      <x:c r="C11" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="D11" s="4">
+      <x:c r="D11" s="2">
         <x:v>36530</x:v>
       </x:c>
     </x:row>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/Collections.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/Collections.xlsx
@@ -653,14 +653,7 @@
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter differentOddEven="1" differentFirst="1" scaleWithDoc="1" alignWithMargins="1">
-    <x:oddHeader/>
-    <x:oddFooter/>
-    <x:evenHeader/>
-    <x:evenFooter/>
-    <x:firstHeader/>
-    <x:firstFooter/>
-  </x:headerFooter>
+  <x:headerFooter/>
   <x:tableParts count="0"/>
 </x:worksheet>
 </file>
--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/Collections.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/Collections.xlsx
@@ -469,14 +469,14 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="8.980625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="13.410625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="10.550625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="10.410625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="3.980625" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="8.270624999999999" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="13.270625" style="0" customWidth="1"/>
-    <x:col min="8" max="8" width="3.980625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="9.1090625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="13.1090625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="11.1090625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="10.1090625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="3.1090625" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="6.1090625" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="12.1090625" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="3.1090625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:8">

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/Collections.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/Collections.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <x:workbookPr codeName="ThisWorkbook"/>
   <x:bookViews>
     <x:workbookView firstSheet="0" activeTab="0"/>
   </x:bookViews>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/Collections.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/Collections.xlsx
@@ -469,14 +469,14 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="9.1090625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="13.1090625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="11.1090625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="10.1090625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="3.1090625" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="6.1090625" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="12.1090625" style="0" customWidth="1"/>
-    <x:col min="8" max="8" width="3.1090625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="9.085625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="13.10125" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="11.10125" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="10.10125" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="3.10125" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="6.10125" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="12.10125" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="3.10125" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:8">

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/Collections.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/Collections.xlsx
@@ -469,14 +469,14 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="9.085625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="13.10125" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="11.10125" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="10.10125" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="3.10125" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="6.10125" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="12.10125" style="0" customWidth="1"/>
-    <x:col min="8" max="8" width="3.10125" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="8.980625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="13.410625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="10.550625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="10.700625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="3.980625" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="8.270624999999999" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="13.270625" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="3.980625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:8">

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/Collections.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/Collections.xlsx
@@ -91,7 +91,7 @@
   <x:numFmts count="1">
     <x:numFmt numFmtId="0" formatCode=""/>
   </x:numFmts>
-  <x:fonts count="2">
+  <x:fonts count="3">
     <x:font>
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
@@ -101,6 +101,13 @@
     </x:font>
     <x:font>
       <x:b/>
+      <x:vertAlign val="baseline"/>
+      <x:sz val="11"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+    </x:font>
+    <x:font>
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
       <x:color rgb="FF000000"/>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/Collections.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/Collections.xlsx
@@ -472,7 +472,7 @@
   </x:sheetPr>
   <x:dimension ref="A1:H11"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="0" workbookViewId="0"/>
+    <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/Collections.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/Collections.xlsx
@@ -476,14 +476,14 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="8.980625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="13.410625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="10.550625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="10.700625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="3.980625" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="8.270624999999999" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="13.270625" style="0" customWidth="1"/>
-    <x:col min="8" max="8" width="3.980625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="7.770625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="11.860625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="9.1706250000000011" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="9.830625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="2.900625" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="6.970625" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="11.870625" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="3.960625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:8">

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/Collections.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/Collections.xlsx
@@ -149,29 +149,29 @@
     </x:border>
   </x:borders>
   <x:cellStyleXfs count="4">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
   <x:cellXfs count="3">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/Collections.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/Collections.xlsx
@@ -478,7 +478,7 @@
   <x:cols>
     <x:col min="1" max="1" width="7.770625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="11.860625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="9.1706250000000011" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="9.170625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="9.830625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="2.900625" style="0" customWidth="1"/>
     <x:col min="6" max="6" width="6.970625" style="0" customWidth="1"/>
